--- a/res/voc/job.xlsx
+++ b/res/voc/job.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t/>
   </si>
@@ -32,22 +32,211 @@
     <t>imgPath</t>
   </si>
   <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>thợ điện</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>kế toán</t>
+  </si>
+  <si>
+    <t>foreman</t>
+  </si>
+  <si>
+    <t>Quản đốc, đốc công</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>kiến trúc sư</t>
+  </si>
+  <si>
+    <t>translator</t>
+  </si>
+  <si>
+    <t>thông dịch viên</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>thợ máy, thơ cơ khí</t>
+  </si>
+  <si>
+    <t>pharmacist</t>
+  </si>
+  <si>
+    <t>dược sĩ</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>thợ may</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>thợ mộc</t>
+  </si>
+  <si>
+    <t>fisher</t>
+  </si>
+  <si>
+    <t>ngư dân</t>
+  </si>
+  <si>
+    <t>miner</t>
+  </si>
+  <si>
+    <t>thợ mỏ</t>
+  </si>
+  <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>phi hành gia</t>
+  </si>
+  <si>
+    <t>hairdresser</t>
+  </si>
+  <si>
+    <t>thợ làm tóc</t>
+  </si>
+  <si>
+    <t>plumber</t>
+  </si>
+  <si>
+    <t>thợ sửa ống nước</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>giáo viên</t>
+  </si>
+  <si>
+    <t>secretary</t>
+  </si>
+  <si>
+    <t>thư ký</t>
+  </si>
+  <si>
+    <t>hair stylist</t>
+  </si>
+  <si>
+    <t>nhà tạo mẫu tóc</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>nhân viên tiếp tân</t>
+  </si>
+  <si>
+    <t>cashier</t>
+  </si>
+  <si>
+    <t>Nhân viên thu ngân</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>y tá</t>
+  </si>
+  <si>
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>người pha rượu</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>thẩm phán</t>
+  </si>
+  <si>
+    <t>musician</t>
+  </si>
+  <si>
+    <t>nhạc sĩ</t>
+  </si>
+  <si>
+    <t>welder</t>
+  </si>
+  <si>
+    <t>thợ hàn</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>phi công</t>
+  </si>
+  <si>
+    <t>waitress</t>
+  </si>
+  <si>
+    <t>nữ phục vụ bàn</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Nhà văn</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>đầu bếp</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>phóng viên</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>kỹ thuật viên</t>
+  </si>
+  <si>
+    <t>designer</t>
+  </si>
+  <si>
+    <t>Nhà thiết kế</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>kỹ sư</t>
+  </si>
+  <si>
+    <t>dentist</t>
+  </si>
+  <si>
+    <t>nha sĩ</t>
+  </si>
+  <si>
     <t>doctor</t>
   </si>
   <si>
     <t>bác sĩ</t>
   </si>
   <si>
-    <t>astronaut</t>
-  </si>
-  <si>
-    <t>phi hành gia</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>giáo viên</t>
+    <t>journalist</t>
   </si>
   <si>
     <t>driver</t>
@@ -56,16 +245,34 @@
     <t>tài xế</t>
   </si>
   <si>
-    <t>nurse</t>
-  </si>
-  <si>
-    <t>y tá</t>
+    <t>salesperson</t>
+  </si>
+  <si>
+    <t>nhân viên bán hàng</t>
   </si>
   <si>
     <t>farmer</t>
   </si>
   <si>
     <t>nông dân</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>nam phục vụ bàn</t>
+  </si>
+  <si>
+    <t>policeman</t>
+  </si>
+  <si>
+    <t>cảnh sát</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>quản gia</t>
   </si>
 </sst>
 </file>
@@ -121,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -154,7 +361,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -168,7 +375,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -182,7 +389,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -210,7 +417,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -224,9 +431,499 @@
         <v>17</v>
       </c>
       <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="true">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="true">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="true">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="true">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="true">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="true">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="true">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="true">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="true">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="true">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="true">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="true">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="true">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="true">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="true">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="true">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="true">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="true">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="true">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="true">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="true">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="true">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="true">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="true">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>0</v>
       </c>
     </row>
